--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1126.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>11837</v>
+        <v>2327</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1126.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1126.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
